--- a/simulator/output/simulated_trades.xlsx
+++ b/simulator/output/simulated_trades.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF501"/>
+  <dimension ref="A1:AF502"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -672,22 +672,11 @@
       <c r="T2" t="n">
         <v>1220</v>
       </c>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr">
         <is>
           <t>123</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -766,22 +755,11 @@
       <c r="T3" t="n">
         <v>1472</v>
       </c>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="inlineStr"/>
       <c r="AE3" t="inlineStr">
         <is>
           <t>123</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -860,22 +838,11 @@
       <c r="T4" t="n">
         <v>1597</v>
       </c>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="inlineStr"/>
       <c r="AE4" t="inlineStr">
         <is>
           <t>123</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -954,22 +921,11 @@
       <c r="T5" t="n">
         <v>1019</v>
       </c>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr"/>
-      <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="inlineStr"/>
-      <c r="AD5" t="inlineStr"/>
       <c r="AE5" t="inlineStr">
         <is>
           <t>123</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1048,22 +1004,11 @@
       <c r="T6" t="n">
         <v>1695</v>
       </c>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="inlineStr"/>
-      <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="inlineStr"/>
-      <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="inlineStr">
         <is>
           <t>123</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1142,22 +1087,11 @@
       <c r="T7" t="n">
         <v>1349</v>
       </c>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
-      <c r="AA7" t="inlineStr"/>
-      <c r="AB7" t="inlineStr"/>
-      <c r="AC7" t="inlineStr"/>
-      <c r="AD7" t="inlineStr"/>
       <c r="AE7" t="inlineStr">
         <is>
           <t>123</t>
         </is>
       </c>
-      <c r="AF7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1236,22 +1170,11 @@
       <c r="T8" t="n">
         <v>1184</v>
       </c>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="inlineStr"/>
-      <c r="AB8" t="inlineStr"/>
-      <c r="AC8" t="inlineStr"/>
-      <c r="AD8" t="inlineStr"/>
       <c r="AE8" t="inlineStr">
         <is>
           <t>123</t>
         </is>
       </c>
-      <c r="AF8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1330,22 +1253,11 @@
       <c r="T9" t="n">
         <v>1569</v>
       </c>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="inlineStr"/>
-      <c r="AB9" t="inlineStr"/>
-      <c r="AC9" t="inlineStr"/>
-      <c r="AD9" t="inlineStr"/>
       <c r="AE9" t="inlineStr">
         <is>
           <t>123</t>
         </is>
       </c>
-      <c r="AF9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1424,22 +1336,11 @@
       <c r="T10" t="n">
         <v>1550</v>
       </c>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
-      <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="inlineStr"/>
-      <c r="AD10" t="inlineStr"/>
       <c r="AE10" t="inlineStr">
         <is>
           <t>123</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -58395,6 +58296,122 @@
       </c>
       <c r="AF501" t="n">
         <v>9.51</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="n">
+        <v>501</v>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>HDFCBANK</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="D502" t="n">
+        <v>980</v>
+      </c>
+      <c r="E502" t="n">
+        <v>984.9</v>
+      </c>
+      <c r="F502" t="n">
+        <v>974.75</v>
+      </c>
+      <c r="G502" t="n">
+        <v>982.3</v>
+      </c>
+      <c r="H502" t="n">
+        <v>984.9</v>
+      </c>
+      <c r="I502" t="n">
+        <v>980</v>
+      </c>
+      <c r="J502" t="n">
+        <v>15003669</v>
+      </c>
+      <c r="K502" t="n">
+        <v>11</v>
+      </c>
+      <c r="L502" t="n">
+        <v>87</v>
+      </c>
+      <c r="M502" t="inlineStr">
+        <is>
+          <t>LONG</t>
+        </is>
+      </c>
+      <c r="N502" t="inlineStr">
+        <is>
+          <t>MARKET</t>
+        </is>
+      </c>
+      <c r="O502" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="P502" t="inlineStr">
+        <is>
+          <t>ICICI</t>
+        </is>
+      </c>
+      <c r="Q502" t="inlineStr">
+        <is>
+          <t>Fulfilled</t>
+        </is>
+      </c>
+      <c r="R502" t="inlineStr">
+        <is>
+          <t>10:19:59</t>
+        </is>
+      </c>
+      <c r="S502" t="n">
+        <v>10</v>
+      </c>
+      <c r="T502" t="n">
+        <v>87</v>
+      </c>
+      <c r="U502" t="n">
+        <v>988.64</v>
+      </c>
+      <c r="V502" t="n">
+        <v>976.86</v>
+      </c>
+      <c r="W502" t="n">
+        <v>86011.67999999999</v>
+      </c>
+      <c r="X502" t="n">
+        <v>84986.82000000001</v>
+      </c>
+      <c r="Y502" t="n">
+        <v>1720.23</v>
+      </c>
+      <c r="Z502" t="n">
+        <v>1699.74</v>
+      </c>
+      <c r="AA502" t="n">
+        <v>87731.91</v>
+      </c>
+      <c r="AB502" t="n">
+        <v>86686.56</v>
+      </c>
+      <c r="AC502" t="n">
+        <v>598.5599999999999</v>
+      </c>
+      <c r="AD502" t="n">
+        <v>-1045.36</v>
+      </c>
+      <c r="AE502" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="AF502" t="n">
+        <v>9.5</v>
       </c>
     </row>
   </sheetData>

--- a/simulator/output/simulated_trades.xlsx
+++ b/simulator/output/simulated_trades.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF502"/>
+  <dimension ref="A1:AF504"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58414,6 +58414,238 @@
         <v>9.5</v>
       </c>
     </row>
+    <row r="503">
+      <c r="A503" t="n">
+        <v>502</v>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>HDFCBANK</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="D503" t="n">
+        <v>980</v>
+      </c>
+      <c r="E503" t="n">
+        <v>984.9</v>
+      </c>
+      <c r="F503" t="n">
+        <v>974.75</v>
+      </c>
+      <c r="G503" t="n">
+        <v>982.3</v>
+      </c>
+      <c r="H503" t="n">
+        <v>984.9</v>
+      </c>
+      <c r="I503" t="n">
+        <v>980</v>
+      </c>
+      <c r="J503" t="n">
+        <v>15004568</v>
+      </c>
+      <c r="K503" t="n">
+        <v>11</v>
+      </c>
+      <c r="L503" t="n">
+        <v>83</v>
+      </c>
+      <c r="M503" t="inlineStr">
+        <is>
+          <t>SHORT</t>
+        </is>
+      </c>
+      <c r="N503" t="inlineStr">
+        <is>
+          <t>MARKET</t>
+        </is>
+      </c>
+      <c r="O503" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="P503" t="inlineStr">
+        <is>
+          <t>ICICI</t>
+        </is>
+      </c>
+      <c r="Q503" t="inlineStr">
+        <is>
+          <t>Fulfilled</t>
+        </is>
+      </c>
+      <c r="R503" t="inlineStr">
+        <is>
+          <t>15:42:50</t>
+        </is>
+      </c>
+      <c r="S503" t="n">
+        <v>15</v>
+      </c>
+      <c r="T503" t="n">
+        <v>83</v>
+      </c>
+      <c r="U503" t="n">
+        <v>981.35</v>
+      </c>
+      <c r="V503" t="n">
+        <v>983.33</v>
+      </c>
+      <c r="W503" t="n">
+        <v>81452.05</v>
+      </c>
+      <c r="X503" t="n">
+        <v>81616.39</v>
+      </c>
+      <c r="Y503" t="n">
+        <v>1629.04</v>
+      </c>
+      <c r="Z503" t="n">
+        <v>1632.33</v>
+      </c>
+      <c r="AA503" t="n">
+        <v>79823.00999999999</v>
+      </c>
+      <c r="AB503" t="n">
+        <v>79984.06</v>
+      </c>
+      <c r="AC503" t="n">
+        <v>571.04</v>
+      </c>
+      <c r="AD503" t="n">
+        <v>-161.05</v>
+      </c>
+      <c r="AE503" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="AF503" t="n">
+        <v>6.09</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="n">
+        <v>503</v>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>HDFCBANK</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="D504" t="n">
+        <v>980</v>
+      </c>
+      <c r="E504" t="n">
+        <v>984.9</v>
+      </c>
+      <c r="F504" t="n">
+        <v>974.75</v>
+      </c>
+      <c r="G504" t="n">
+        <v>982.3</v>
+      </c>
+      <c r="H504" t="n">
+        <v>984.9</v>
+      </c>
+      <c r="I504" t="n">
+        <v>980</v>
+      </c>
+      <c r="J504" t="n">
+        <v>15004568</v>
+      </c>
+      <c r="K504" t="n">
+        <v>11</v>
+      </c>
+      <c r="L504" t="n">
+        <v>86</v>
+      </c>
+      <c r="M504" t="inlineStr">
+        <is>
+          <t>LONG</t>
+        </is>
+      </c>
+      <c r="N504" t="inlineStr">
+        <is>
+          <t>MARKET</t>
+        </is>
+      </c>
+      <c r="O504" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="P504" t="inlineStr">
+        <is>
+          <t>ICICI</t>
+        </is>
+      </c>
+      <c r="Q504" t="inlineStr">
+        <is>
+          <t>Fulfilled</t>
+        </is>
+      </c>
+      <c r="R504" t="inlineStr">
+        <is>
+          <t>10:46:29</t>
+        </is>
+      </c>
+      <c r="S504" t="n">
+        <v>10</v>
+      </c>
+      <c r="T504" t="n">
+        <v>86</v>
+      </c>
+      <c r="U504" t="n">
+        <v>987.95</v>
+      </c>
+      <c r="V504" t="n">
+        <v>976.1799999999999</v>
+      </c>
+      <c r="W504" t="n">
+        <v>84963.7</v>
+      </c>
+      <c r="X504" t="n">
+        <v>83951.48</v>
+      </c>
+      <c r="Y504" t="n">
+        <v>1699.27</v>
+      </c>
+      <c r="Z504" t="n">
+        <v>1679.03</v>
+      </c>
+      <c r="AA504" t="n">
+        <v>86662.97</v>
+      </c>
+      <c r="AB504" t="n">
+        <v>85630.50999999999</v>
+      </c>
+      <c r="AC504" t="n">
+        <v>590.8200000000001</v>
+      </c>
+      <c r="AD504" t="n">
+        <v>-1032.46</v>
+      </c>
+      <c r="AE504" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="AF504" t="n">
+        <v>6.41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/simulator/output/simulated_trades.xlsx
+++ b/simulator/output/simulated_trades.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF501"/>
+  <dimension ref="A1:AF502"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -672,22 +672,11 @@
       <c r="T2" t="n">
         <v>1916</v>
       </c>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr">
         <is>
           <t>123</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -766,22 +755,11 @@
       <c r="T3" t="n">
         <v>1725</v>
       </c>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="inlineStr"/>
       <c r="AE3" t="inlineStr">
         <is>
           <t>123</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -860,22 +838,11 @@
       <c r="T4" t="n">
         <v>1947</v>
       </c>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="inlineStr"/>
       <c r="AE4" t="inlineStr">
         <is>
           <t>123</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -954,22 +921,11 @@
       <c r="T5" t="n">
         <v>1017</v>
       </c>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr"/>
-      <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="inlineStr"/>
-      <c r="AD5" t="inlineStr"/>
       <c r="AE5" t="inlineStr">
         <is>
           <t>123</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1048,22 +1004,11 @@
       <c r="T6" t="n">
         <v>1018</v>
       </c>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="inlineStr"/>
-      <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="inlineStr"/>
-      <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="inlineStr">
         <is>
           <t>123</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1142,22 +1087,11 @@
       <c r="T7" t="n">
         <v>1933</v>
       </c>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
-      <c r="AA7" t="inlineStr"/>
-      <c r="AB7" t="inlineStr"/>
-      <c r="AC7" t="inlineStr"/>
-      <c r="AD7" t="inlineStr"/>
       <c r="AE7" t="inlineStr">
         <is>
           <t>123</t>
         </is>
       </c>
-      <c r="AF7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1236,22 +1170,11 @@
       <c r="T8" t="n">
         <v>1820</v>
       </c>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="inlineStr"/>
-      <c r="AB8" t="inlineStr"/>
-      <c r="AC8" t="inlineStr"/>
-      <c r="AD8" t="inlineStr"/>
       <c r="AE8" t="inlineStr">
         <is>
           <t>123</t>
         </is>
       </c>
-      <c r="AF8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1330,22 +1253,11 @@
       <c r="T9" t="n">
         <v>1106</v>
       </c>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="inlineStr"/>
-      <c r="AB9" t="inlineStr"/>
-      <c r="AC9" t="inlineStr"/>
-      <c r="AD9" t="inlineStr"/>
       <c r="AE9" t="inlineStr">
         <is>
           <t>123</t>
         </is>
       </c>
-      <c r="AF9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1424,22 +1336,11 @@
       <c r="T10" t="n">
         <v>1384</v>
       </c>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
-      <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="inlineStr"/>
-      <c r="AD10" t="inlineStr"/>
       <c r="AE10" t="inlineStr">
         <is>
           <t>123</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -58395,6 +58296,122 @@
       </c>
       <c r="AF501" t="n">
         <v>8.609999999999999</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="n">
+        <v>501</v>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>HDFCBANK</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="D502" t="n">
+        <v>980</v>
+      </c>
+      <c r="E502" t="n">
+        <v>984.9</v>
+      </c>
+      <c r="F502" t="n">
+        <v>974.75</v>
+      </c>
+      <c r="G502" t="n">
+        <v>982.3</v>
+      </c>
+      <c r="H502" t="n">
+        <v>984.9</v>
+      </c>
+      <c r="I502" t="n">
+        <v>980</v>
+      </c>
+      <c r="J502" t="n">
+        <v>15004568</v>
+      </c>
+      <c r="K502" t="n">
+        <v>11</v>
+      </c>
+      <c r="L502" t="n">
+        <v>15</v>
+      </c>
+      <c r="M502" t="inlineStr">
+        <is>
+          <t>SHORT</t>
+        </is>
+      </c>
+      <c r="N502" t="inlineStr">
+        <is>
+          <t>MARKET</t>
+        </is>
+      </c>
+      <c r="O502" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="P502" t="inlineStr">
+        <is>
+          <t>ICICI</t>
+        </is>
+      </c>
+      <c r="Q502" t="inlineStr">
+        <is>
+          <t>Fulfilled</t>
+        </is>
+      </c>
+      <c r="R502" t="inlineStr">
+        <is>
+          <t>15:33:39</t>
+        </is>
+      </c>
+      <c r="S502" t="n">
+        <v>15</v>
+      </c>
+      <c r="T502" t="n">
+        <v>15</v>
+      </c>
+      <c r="U502" t="n">
+        <v>981.55</v>
+      </c>
+      <c r="V502" t="n">
+        <v>983.53</v>
+      </c>
+      <c r="W502" t="n">
+        <v>14723.25</v>
+      </c>
+      <c r="X502" t="n">
+        <v>14752.95</v>
+      </c>
+      <c r="Y502" t="n">
+        <v>294.47</v>
+      </c>
+      <c r="Z502" t="n">
+        <v>295.06</v>
+      </c>
+      <c r="AA502" t="n">
+        <v>14428.78</v>
+      </c>
+      <c r="AB502" t="n">
+        <v>14457.89</v>
+      </c>
+      <c r="AC502" t="n">
+        <v>103.2</v>
+      </c>
+      <c r="AD502" t="n">
+        <v>-29.11</v>
+      </c>
+      <c r="AE502" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="AF502" t="n">
+        <v>8.31</v>
       </c>
     </row>
   </sheetData>
